--- a/イニシアティブPBL演習用ロボット部品表.xlsx
+++ b/イニシアティブPBL演習用ロボット部品表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_kame\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_bitbucket\initiativepbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{947BA881-15E3-4099-9208-7AF4C83DC231}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCCDEF8-C989-4E8D-A3D7-E5DA816CF1DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21250" windowHeight="16820" xr2:uid="{E4F19824-A86D-495A-9887-A249F774858B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -280,6 +280,21 @@
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電池ボックス</t>
+    <rPh sb="0" eb="2">
+      <t>デンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Linkman：SBH3411AS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルツ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -494,6 +509,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -502,15 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,11 +841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE426FDA-7BE2-4116-B4B9-5E036FCC7F8A}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -877,7 +892,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="3"/>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F26" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F27" si="0">D3*E3</f>
         <v>0</v>
       </c>
       <c r="G3" s="8"/>
@@ -1176,23 +1191,29 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="6">
+        <v>143</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="8"/>
+        <v>1430</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="12"/>
       <c r="D21" s="6"/>
       <c r="E21" s="3"/>
@@ -1202,14 +1223,14 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>40</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C22" s="12"/>
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
       <c r="F22" s="7">
@@ -1218,10 +1239,14 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="3"/>
       <c r="F23" s="7">
@@ -1231,71 +1256,83 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>7125</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>2</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <f t="shared" si="0"/>
         <v>14250</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="7">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="7">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20" t="s">
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="19"/>
+      <c r="B28" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23">
-        <f>SUM(F3:F26)</f>
-        <v>205700</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="20">
+        <f>SUM(F3:F27)</f>
+        <v>207130</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/イニシアティブPBL演習用ロボット部品表.xlsx
+++ b/イニシアティブPBL演習用ロボット部品表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_bitbucket\initiativepbl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_github\initiativePBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCCDEF8-C989-4E8D-A3D7-E5DA816CF1DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68B6376-F723-4925-9C1E-1CE876C8375F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21250" windowHeight="16820" xr2:uid="{E4F19824-A86D-495A-9887-A249F774858B}"/>
   </bookViews>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -84,10 +89,6 @@
   </si>
   <si>
     <t>Arduino Uno R3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチサイエンス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -185,10 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パナソニック：QE-AL102-W</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Amazon</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -295,6 +292,42 @@
   </si>
   <si>
     <t>マルツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレコム：DE-AC01-2924WF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MediaPad T3 10/Wi-Fi AGS-W09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maruduino UNO R3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sony</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチサイエンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タミヤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Huawei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HYPERION</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -841,11 +874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE426FDA-7BE2-4116-B4B9-5E036FCC7F8A}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -886,241 +919,263 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1850</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F27" si="0">D3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="8"/>
+        <f t="shared" ref="F3:F26" si="0">D3*E3</f>
+        <v>18500</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3240</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>32400</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1830</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>18300</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6">
-        <v>1830</v>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2138</v>
       </c>
       <c r="E6" s="3">
         <v>10</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="0"/>
-        <v>18300</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>21380</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="11">
-        <v>2138</v>
+        <v>5980</v>
       </c>
       <c r="E7" s="3">
         <v>10</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>21380</v>
-      </c>
-      <c r="G7" s="8"/>
+        <v>59800</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11">
-        <v>5980</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6">
+        <v>558</v>
+      </c>
+      <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>59800</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>5580</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6">
-        <v>558</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>5580</v>
-      </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>21</v>
+      <c r="A12" s="2"/>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="D12" s="6">
+        <v>907</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
+        <v>9070</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
-      <c r="B13" s="10" t="s">
-        <v>23</v>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6">
-        <v>907</v>
+        <v>648</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>9070</v>
-      </c>
-      <c r="G13" s="8"/>
+        <v>6480</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6">
-        <v>648</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1598</v>
+      </c>
+      <c r="E15" s="3">
         <v>10</v>
       </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>6480</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>15980</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="6">
-        <v>2401</v>
+        <v>428</v>
       </c>
       <c r="E16" s="3">
         <v>10</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>24010</v>
+        <v>4280</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1132,17 +1187,17 @@
         <v>32</v>
       </c>
       <c r="D17" s="6">
-        <v>428</v>
+        <v>316</v>
       </c>
       <c r="E17" s="3">
         <v>10</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>4280</v>
+        <v>3160</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1154,99 +1209,99 @@
         <v>34</v>
       </c>
       <c r="D18" s="6">
-        <v>316</v>
+        <v>699</v>
       </c>
       <c r="E18" s="3">
         <v>10</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>3160</v>
+        <v>6990</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D19" s="6">
-        <v>699</v>
+        <v>143</v>
       </c>
       <c r="E19" s="3">
         <v>10</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>6990</v>
+        <v>1430</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="6">
-        <v>143</v>
-      </c>
-      <c r="E20" s="3">
-        <v>10</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>1430</v>
-      </c>
-      <c r="G20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="6">
+        <v>20304</v>
+      </c>
+      <c r="E21" s="3">
+        <v>15</v>
+      </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2" t="s">
+        <v>304560</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2"/>
+      <c r="B22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="12"/>
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
-      <c r="B23" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="6"/>
       <c r="E23" s="3"/>
       <c r="F23" s="7">
@@ -1256,83 +1311,71 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="6">
+        <v>7125</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
+        <v>14250</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="19"/>
+      <c r="B27" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="6">
-        <v>7125</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>14250</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="19"/>
-      <c r="B28" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="20">
-        <f>SUM(F3:F27)</f>
-        <v>207130</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="20">
+        <f>SUM(F3:F26)</f>
+        <v>489760</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
